--- a/src/test/resources/TestData/Requisition.xlsx
+++ b/src/test/resources/TestData/Requisition.xlsx
@@ -32,12 +32,14 @@
     <sheet name="Requisition_104334" r:id="rId26" sheetId="24"/>
     <sheet name="Requisition_104335" r:id="rId27" sheetId="25"/>
     <sheet name="Requisition_104342" r:id="rId28" sheetId="26"/>
+    <sheet name="Requisition_100547" r:id="rId29" sheetId="27"/>
+    <sheet name="Requisition_100548" r:id="rId30" sheetId="28"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="267">
   <si>
     <t>Requisition Number</t>
   </si>
@@ -748,6 +750,96 @@
   </si>
   <si>
     <t>**DRY FRUITS &amp; NUTS**</t>
+  </si>
+  <si>
+    <t>100547</t>
+  </si>
+  <si>
+    <t>30-January-2026</t>
+  </si>
+  <si>
+    <t>ALLIA MAIN KITC</t>
+  </si>
+  <si>
+    <t>YOB RETAIL STORE</t>
+  </si>
+  <si>
+    <t>FDBC0214</t>
+  </si>
+  <si>
+    <t>PINEAPPLE PUREE ( RAVIFRUIT ) KG FZ IND</t>
+  </si>
+  <si>
+    <t>FDDF0009</t>
+  </si>
+  <si>
+    <t>DRY FRUIT PINENUTS PEELED IMP</t>
+  </si>
+  <si>
+    <t>FDBC0343</t>
+  </si>
+  <si>
+    <t>COLOR LEAF GREEN 100 GMS BRAND MANGARAM</t>
+  </si>
+  <si>
+    <t>FDBC0090</t>
+  </si>
+  <si>
+    <t>MILK CHOCOLATE CHIPS MORDE PC M 3190</t>
+  </si>
+  <si>
+    <t>FDBC0103</t>
+  </si>
+  <si>
+    <t>PUREE RASPBERRY RAVIFRUIT KG FH IND</t>
+  </si>
+  <si>
+    <t>CHIM0055</t>
+  </si>
+  <si>
+    <t>CHEESE RACLETTE WHEEL BRAND LE PAYS PROMAGER ORIGIN SWISH</t>
+  </si>
+  <si>
+    <t>CHIN0008</t>
+  </si>
+  <si>
+    <t>CHEESE PROCESSED VEG. 400 GRAM BRAND- AMUL</t>
+  </si>
+  <si>
+    <t>FDBC0267</t>
+  </si>
+  <si>
+    <t>CHOCOLATE SNICKERS BAR 45 GMS</t>
+  </si>
+  <si>
+    <t>FDBC0257</t>
+  </si>
+  <si>
+    <t>COLOUR PINK 500 GRAM MANGARAM</t>
+  </si>
+  <si>
+    <t>112.750</t>
+  </si>
+  <si>
+    <t>FBSP0006</t>
+  </si>
+  <si>
+    <t>**F&amp;B SUPPLIES (FS)</t>
+  </si>
+  <si>
+    <t>123.000</t>
+  </si>
+  <si>
+    <t>100548</t>
+  </si>
+  <si>
+    <t>JADE (KST SUB STORE)</t>
+  </si>
+  <si>
+    <t>BFTW0182</t>
+  </si>
+  <si>
+    <t>BLAZE BUFFET RISER GOLD SMALL</t>
   </si>
 </sst>
 </file>
@@ -3007,6 +3099,288 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F14"/>
